--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -5,25 +5,29 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa09850\Katalon Studio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa09850\Katalon Studio\My First Desktop Project\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
-    <sheet name="PI_InsBillInfo" sheetId="1" r:id="rId2"/>
+    <sheet name="PI_InsBillingInfo" sheetId="1" r:id="rId2"/>
     <sheet name="PI_PolicyDiscCov" sheetId="2" r:id="rId3"/>
     <sheet name="Auto" sheetId="3" r:id="rId4"/>
-    <sheet name="Driver HH Member" sheetId="4" r:id="rId5"/>
-    <sheet name="Driver Assignment" sheetId="5" r:id="rId6"/>
-    <sheet name="Home_DwlInfo" sheetId="6" r:id="rId7"/>
+    <sheet name="Driver_HHMember" sheetId="4" r:id="rId5"/>
+    <sheet name="Driver_Assignment" sheetId="5" r:id="rId6"/>
+    <sheet name="Home_Dwelling" sheetId="6" r:id="rId7"/>
+    <sheet name="Umbrella" sheetId="8" r:id="rId8"/>
+    <sheet name="OtherInfo_Auto" sheetId="9" r:id="rId9"/>
+    <sheet name="OtherInfo_PrimaryDwelling" sheetId="10" r:id="rId10"/>
+    <sheet name="OtherInfo_GenInfo" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
-    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="7"/>
     <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
+    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="10"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
   <si>
     <t>Regression Name</t>
   </si>
@@ -51,9 +55,6 @@
     <t>NewQuote</t>
   </si>
   <si>
-    <t>480001 - WI Agency</t>
-  </si>
-  <si>
     <t>MILE-STONE</t>
   </si>
   <si>
@@ -93,9 +94,6 @@
     <t>Attorney Association Discount</t>
   </si>
   <si>
-    <t>IB_LocAddHouse#</t>
-  </si>
-  <si>
     <t>Ol Hayes</t>
   </si>
   <si>
@@ -120,9 +118,6 @@
     <t>IB_Phone</t>
   </si>
   <si>
-    <t>122 344 5465</t>
-  </si>
-  <si>
     <t>IB_OptDes</t>
   </si>
   <si>
@@ -138,9 +133,6 @@
     <t>Auto_VehInfType</t>
   </si>
   <si>
-    <t>Private Passenger</t>
-  </si>
-  <si>
     <t>Auto_VehInfUsage</t>
   </si>
   <si>
@@ -168,18 +160,12 @@
     <t>50/100</t>
   </si>
   <si>
-    <t>Auto_OtherInfPrCarAutoInf</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
     <t>Auto_PriorCar</t>
   </si>
   <si>
-    <t>AllState</t>
-  </si>
-  <si>
     <t>Auto_APCExpDate</t>
   </si>
   <si>
@@ -189,84 +175,30 @@
     <t>Auto_APCPriCarBIlimPerOcc</t>
   </si>
   <si>
-    <t>Auto_APC#ofYrs</t>
-  </si>
-  <si>
-    <t>Auto_APCOK</t>
-  </si>
-  <si>
     <t>Auto_UnderwritingInfo</t>
   </si>
   <si>
     <t>Licensed: 5 or more years</t>
   </si>
   <si>
-    <t>Driver/HHMem_SSN</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Gender</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Driver/HHMem_MaritalStatus</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>Driver/HHMem_DOB</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Occupation</t>
-  </si>
-  <si>
     <t>Carpenter</t>
   </si>
   <si>
-    <t>Driver/HHMem_LicInfoLicStatus</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_LicInfLicNo.</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Date</t>
-  </si>
-  <si>
-    <t>Driver/HHMem_Acc/Vio</t>
-  </si>
-  <si>
     <t>At Fault Accident &gt; $3000 But &lt; $100,000</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Auto _Underwting Info
-Is this vehicle titled in insured's personal name?</t>
-  </si>
-  <si>
-    <t>Auto_Underwriting Info
-Does Vehicle have advertising or signage.</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Auto_Underwriting Info
-Is vechile used in delivery of, transporting of,
-materials, products or persons?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Auto_Underwriting Info
-Do you use this vehicle to travel to
- multiple job sites or clients daily.?</t>
-  </si>
-  <si>
     <t>Auto_UnderwritingInfoOK</t>
   </si>
   <si>
@@ -276,30 +208,12 @@
     <t>Sen</t>
   </si>
   <si>
-    <t>Drivers</t>
-  </si>
-  <si>
-    <t>Driver 1</t>
-  </si>
-  <si>
-    <t>Driver 2</t>
-  </si>
-  <si>
-    <t>Licensed : 4 years</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Childcare</t>
   </si>
   <si>
-    <t>At Fault Accident &gt;=$100,000</t>
-  </si>
-  <si>
-    <t>Driver Assignment_Veh2018 FORD F-150 PKP4X44DPrimOper</t>
-  </si>
-  <si>
     <t>Sen Weyne</t>
   </si>
   <si>
@@ -312,12 +226,6 @@
     <t>DI_YearBuilt</t>
   </si>
   <si>
-    <t>DI_#OfFFam</t>
-  </si>
-  <si>
-    <t>DI_#ofApts/units</t>
-  </si>
-  <si>
     <t>DI_RoofType</t>
   </si>
   <si>
@@ -333,78 +241,18 @@
     <t>DI_SecondaryHeat</t>
   </si>
   <si>
-    <t>DI_Any Losses during the last 3 years?</t>
-  </si>
-  <si>
-    <t>DI_HLM Type of Loss</t>
-  </si>
-  <si>
-    <t>Water Damage- Weather</t>
-  </si>
-  <si>
-    <t>DI_HLH DateofLoss</t>
-  </si>
-  <si>
     <t>DI_HLHAmountPaid</t>
   </si>
   <si>
-    <t>DI_HLH Paid by</t>
-  </si>
-  <si>
-    <t>Secura.</t>
-  </si>
-  <si>
-    <t>DI_HLH-BrefDesofLoss</t>
-  </si>
-  <si>
     <t>Testing 1</t>
   </si>
   <si>
-    <t>DI_HLH-Add/Save</t>
-  </si>
-  <si>
     <t>DI_HLHOK</t>
   </si>
   <si>
-    <t>DI_Is there a swimming pool?</t>
-  </si>
-  <si>
-    <t>Are there any animals?</t>
-  </si>
-  <si>
-    <t>Is there any trampoline?</t>
-  </si>
-  <si>
-    <t>Is there a skate board ramp or biscycle jump?</t>
-  </si>
-  <si>
-    <t>Is the property situated on more than 5 acres?</t>
-  </si>
-  <si>
     <t>DI_HomeRenovations</t>
   </si>
   <si>
-    <t>DI_HR-RoofingNotUpdated</t>
-  </si>
-  <si>
-    <t>DI_HR-WiringNotUpdated</t>
-  </si>
-  <si>
-    <t>Click checkbox</t>
-  </si>
-  <si>
-    <t>DI_HR-Is there a minimu 100 amp circuit breakers?</t>
-  </si>
-  <si>
-    <t>DI_HR-Are there any fuses in the dwellig?</t>
-  </si>
-  <si>
-    <t>DI_HR-Heating Notupdated</t>
-  </si>
-  <si>
-    <t>DI_HR-Plumbing NotUpdated</t>
-  </si>
-  <si>
     <t>DI_HROK</t>
   </si>
   <si>
@@ -417,28 +265,15 @@
     <t>DI_CovInfForm</t>
   </si>
   <si>
-    <t>DI_CovInfWind/Hailded</t>
-  </si>
-  <si>
     <t>DI_CovInfDwelling</t>
   </si>
   <si>
     <t>DI_CovInfMedPay</t>
   </si>
   <si>
-    <t>DI_Numberof owner Occupied Homes
- policyholder has insured with secura.</t>
-  </si>
-  <si>
     <t>DI_HomeDiscounts</t>
   </si>
   <si>
-    <t>DI_HDLocal Burglar</t>
-  </si>
-  <si>
-    <t>Click check box</t>
-  </si>
-  <si>
     <t>DI_HDOK</t>
   </si>
   <si>
@@ -448,26 +283,337 @@
     <t>D1231234567654</t>
   </si>
   <si>
-    <t>TC01-1</t>
-  </si>
-  <si>
     <t>StateButton</t>
   </si>
   <si>
     <t>SelectState</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>W</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>IB_LocAddHouse</t>
+  </si>
+  <si>
+    <t>PRIVATE PASSENGER</t>
+  </si>
+  <si>
+    <t>Auto_OtherInfPrCarAutoInfBtn</t>
+  </si>
+  <si>
+    <t>Auto_APCNofYrs</t>
+  </si>
+  <si>
+    <t>Auto_APC_OK</t>
+  </si>
+  <si>
+    <t>UW_IsThisVehicleTitledInsPer</t>
+  </si>
+  <si>
+    <t>UW_DoesVehicleHaveAdvertisingSignage</t>
+  </si>
+  <si>
+    <t>UW_IsVechileUsedDeliveryTransporting</t>
+  </si>
+  <si>
+    <t>UW_DoYouUseThisVehicleTravel</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>TC01-NewQuote</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_LicInfoLicStatus</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_Gender</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_MaritalStatus</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_SSN</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_DOB</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_Occupation</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_Date</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_AccVio</t>
+  </si>
+  <si>
+    <t>Driver_HHMem_LicInfLicNo</t>
+  </si>
+  <si>
+    <t>Licensed: 4 years</t>
+  </si>
+  <si>
+    <t>DriversTab</t>
+  </si>
+  <si>
+    <t>Driver_TabName</t>
+  </si>
+  <si>
+    <t>TC01-NewQuoteTwo</t>
+  </si>
+  <si>
+    <t>At Fault Accident &gt;= $100,000</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>chkBurglarLocal</t>
+  </si>
+  <si>
+    <t>DI_HomeDiscCheckBoxValues</t>
+  </si>
+  <si>
+    <t>DA_VehOssOperator</t>
+  </si>
+  <si>
+    <t>DA_VehPrimaryOpeator</t>
+  </si>
+  <si>
+    <t>DI_NoOfFFam</t>
+  </si>
+  <si>
+    <t>DI_NoofAptsUnits</t>
+  </si>
+  <si>
+    <t>DI_LossesDuring3Years</t>
+  </si>
+  <si>
+    <t>DI_HLMTypeOfLoss</t>
+  </si>
+  <si>
+    <t>DI_HLHDateofLoss</t>
+  </si>
+  <si>
+    <t>DI_HLHPaidBy</t>
+  </si>
+  <si>
+    <t>DI_HLH_BrefDesofLoss</t>
+  </si>
+  <si>
+    <t>DI_IsSwimmingPool</t>
+  </si>
+  <si>
+    <t>DI_AnyAnimals</t>
+  </si>
+  <si>
+    <t>DI_AnyTrampoline</t>
+  </si>
+  <si>
+    <t>DI_SkateBoardRampBiscycleJump</t>
+  </si>
+  <si>
+    <t>DI_PropertyMoreThan5Acres</t>
+  </si>
+  <si>
+    <t>DI_HR_RoofingNotUpdated</t>
+  </si>
+  <si>
+    <t>DI_HR_WiringNotUpdated</t>
+  </si>
+  <si>
+    <t>DI_HR_Min100AmpCircuitBreakers</t>
+  </si>
+  <si>
+    <t>DI_HR_AnyFusesInDwellig</t>
+  </si>
+  <si>
+    <t>DI_HR_PlumbingNotUpdated</t>
+  </si>
+  <si>
+    <t>DI_CovInfWindHailded</t>
+  </si>
+  <si>
+    <t>DI_PolicyHolderInsuredWithSecura</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>DI_HLH_AddSave</t>
+  </si>
+  <si>
+    <t>DI_HR-HeatingNotupdated</t>
+  </si>
+  <si>
+    <t>UM_IncludeUMQuote</t>
+  </si>
+  <si>
+    <t>UM_Limit</t>
+  </si>
+  <si>
+    <t>UM_AppRejectedUnderInsuredMotoristCov</t>
+  </si>
+  <si>
+    <t>UM_AppRejectedUnInsuredMotoristCov</t>
+  </si>
+  <si>
+    <t>OI_Expirationdate</t>
+  </si>
+  <si>
+    <t>Auto_PCBILimits_Perperson/PerOccurnace</t>
+  </si>
+  <si>
+    <t>Auto_PCBILim_Combined Single Limt</t>
+  </si>
+  <si>
+    <t>10,000/20,000</t>
+  </si>
+  <si>
+    <t>ALLSTATE</t>
+  </si>
+  <si>
+    <t>OI_AT_GIPriorCarrier</t>
+  </si>
+  <si>
+    <t>Auto_NoOfyearsinsured</t>
+  </si>
+  <si>
+    <t>AT_AnyEncumbrancesVehicleNotSolelyOwned</t>
+  </si>
+  <si>
+    <t>AT_CarModifiedSpecialEquipment</t>
+  </si>
+  <si>
+    <t>AT_ExistingDamageToVehicle</t>
+  </si>
+  <si>
+    <t>AT_AnyOtherLosses</t>
+  </si>
+  <si>
+    <t>AT_AnyCarKeptAtSchool</t>
+  </si>
+  <si>
+    <t>AT_AnyAutoInsuredHousehold</t>
+  </si>
+  <si>
+    <t>AT_AnyFinancialRespoFilling</t>
+  </si>
+  <si>
+    <t>AT_AnyCoveDeclinedCanceled3Years</t>
+  </si>
+  <si>
+    <t>AT_AnyVehicleUsedRideSharing</t>
+  </si>
+  <si>
+    <t>PD_YearsInsuredWithPrioCar</t>
+  </si>
+  <si>
+    <t>PD_YearOfOccupancy</t>
+  </si>
+  <si>
+    <t>PD_TotalLivingArea</t>
+  </si>
+  <si>
+    <t>PD_AnyBusinesConductedPremises</t>
+  </si>
+  <si>
+    <t>PD_AnyOtherResidenceOwnedOccupiedRented</t>
+  </si>
+  <si>
+    <t>PD_AnyCoverageDeclinedCancelledNonRenewedLast3Years</t>
+  </si>
+  <si>
+    <t>PD_AnyOutbuildingsOtherThanPrivateGarage</t>
+  </si>
+  <si>
+    <t>PD_ApplicantOwnAnyRecreationalVehicles</t>
+  </si>
+  <si>
+    <t>PD_ApplicantLivedLess3YearsCurrentAddress</t>
+  </si>
+  <si>
+    <t>PD_AnyFarmingOnPremises</t>
+  </si>
+  <si>
+    <t>PD_PropertyRentedOutHomeSharingAirBbBVRBo</t>
+  </si>
+  <si>
+    <t>OI_GIAgncyContactPh</t>
+  </si>
+  <si>
+    <t>OI_PaymentInfo</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Antony@email.com</t>
+  </si>
+  <si>
+    <t>No down payment</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Daniel@email.com</t>
+  </si>
+  <si>
+    <t>(263) 523-7372</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Rachel@email.com</t>
+  </si>
+  <si>
+    <t>(273) 672-6473</t>
+  </si>
+  <si>
+    <t>OI_GIAgencyEMail</t>
+  </si>
+  <si>
+    <t>OI_GI_AgencyContact</t>
+  </si>
+  <si>
+    <t>PD_PriorCarrier</t>
+  </si>
+  <si>
+    <t>PD_ExpDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -493,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -516,15 +662,37 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +712,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F3843E83-9A6A-455A-8B67-886CB6037FF5}" diskRevisions="1" revisionId="17" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B459AD46-2A80-4AF5-A2E4-96961571E18E}" diskRevisions="1" revisionId="246" version="56">
   <header guid="{563223BB-D620-4E77-9B59-1012413D8BE9}" dateTime="2023-07-21T19:01:50" maxSheetId="7" userName="Swetha Seelasaram" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -607,6 +775,609 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{E1CA1F9A-7638-4B44-A19F-B4C54A2173E5}" dateTime="2023-07-24T11:52:55" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId7" minRId="18">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{18C7726B-5948-485B-84E1-C24ED1D45982}" dateTime="2023-07-24T11:53:05" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId8" minRId="19">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BAC62246-BB58-4F02-9D98-CAD6E2A88820}" dateTime="2023-07-24T11:53:10" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId9" minRId="20">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0B0E5051-DE62-4EB1-8AE1-37C4D0B38D0F}" dateTime="2023-07-24T11:58:17" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId10" minRId="21">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{40885EDE-7BA1-48AA-B5BB-6A5A208978A6}" dateTime="2023-07-24T15:13:32" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId11" minRId="22">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{34C31993-3545-467E-B3BF-F544A7CEC344}" dateTime="2023-07-24T15:30:33" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId12" minRId="23">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E2A5BAF9-2B95-43D4-8EC4-75FF71CAB1C1}" dateTime="2023-07-24T16:03:07" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId13" minRId="24" maxRId="25">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{458931D6-7EBB-4812-8C3C-7FF11BB2D0F0}" dateTime="2023-07-24T17:01:24" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId14" minRId="26" maxRId="27">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E156AB73-82D3-4AB3-987F-BF104B00D3F1}" dateTime="2023-07-24T17:31:35" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId15">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F6D2656-14B9-4B47-976E-AFF38C05025D}" dateTime="2023-07-24T18:36:30" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId16" minRId="28">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{332BB591-E17E-4D1A-96D9-571E8E8F6575}" dateTime="2023-07-24T19:21:19" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId17" minRId="29">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4304F751-0F5C-46A3-A787-72B33AE00AE8}" dateTime="2023-07-25T13:27:04" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId18" minRId="30" maxRId="37">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7A806E72-FD70-4FB4-8D30-61B766DB0E72}" dateTime="2023-07-25T15:34:26" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId19" minRId="38" maxRId="40">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B3F06B9A-F2BF-4A49-BA93-5443F867D7B2}" dateTime="2023-07-25T17:01:07" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId20" minRId="41" maxRId="44">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{97858FA5-30BC-4843-82E8-E06953B6D0C7}" dateTime="2023-07-25T22:33:30" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId21" minRId="45" maxRId="47">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FFECB1C8-55C7-49FD-9C58-08324B3A1552}" dateTime="2023-07-25T22:36:22" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId22" minRId="48" maxRId="53">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F68E67CA-8248-42DA-BCD6-8DE57DC18C65}" dateTime="2023-07-25T22:45:51" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId23" minRId="54" maxRId="55">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7FE47F63-BDB5-4E36-81B7-D4786D7A7458}" dateTime="2023-07-25T22:46:43" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId24" minRId="56">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D165A954-540F-4971-BCD8-F7C8EA64244F}" dateTime="2023-07-26T15:53:43" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId25" minRId="57" maxRId="61">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CFEDCC2A-E1DF-4AF0-96FF-6E7515CD15BD}" dateTime="2023-07-26T16:12:36" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId26" minRId="62" maxRId="64">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CE17B413-65C7-400F-B2EA-87765F939A69}" dateTime="2023-07-26T16:14:11" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId27" minRId="65">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35400B3D-A035-4729-8E9C-2E1965BE44B0}" dateTime="2023-07-26T18:17:04" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId28" minRId="66" maxRId="69">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{58894343-50DB-4C76-93CF-7178A5B540A8}" dateTime="2023-07-26T18:51:06" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId29" minRId="70">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{53CBB473-880A-49B2-827E-691DB4957DEC}" dateTime="2023-07-27T11:54:40" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId30" minRId="71">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A04817FC-F249-4EBE-86F7-7B2992454BB4}" dateTime="2023-07-27T15:42:11" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId31" minRId="72" maxRId="75">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6CBA7F72-5F10-44AD-8F5F-673B303EF546}" dateTime="2023-07-27T15:43:41" maxSheetId="8" userName="Sandeep Thadoju" r:id="rId32" minRId="76">
+    <sheetIdMap count="7">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7AA4FD2-3628-45B4-8E9D-5CB111A11EBD}" dateTime="2023-07-27T15:44:06" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId33" minRId="77" maxRId="78">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{560412EF-D197-4B9D-8ADB-1A495259638C}" dateTime="2023-07-27T15:44:22" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId34" minRId="79" maxRId="80">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FE190A8B-2359-4B92-8638-E7EA00A651ED}" dateTime="2023-07-27T15:45:08" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId35" minRId="81">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D1031736-8C19-4063-8AAF-1C6673E07947}" dateTime="2023-07-27T15:45:45" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId36" minRId="82" maxRId="83">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E4FC3EDB-23E3-4876-B2DE-6A0CB4F34E7A}" dateTime="2023-07-27T15:45:48" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId37">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9556D1ED-CD31-46E0-BDB7-D64D5C477A69}" dateTime="2023-07-27T15:45:55" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId38" minRId="84">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{19A8F62A-C1A8-44BA-AD1D-61DF297887CD}" dateTime="2023-07-27T15:52:04" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId39" minRId="85" maxRId="108">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{52F83437-E57C-4B5A-B486-65C6E4746F53}" dateTime="2023-07-27T15:52:40" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId40" minRId="109">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CDDE6749-AA2F-40F9-9B18-BDCA6139B846}" dateTime="2023-07-27T15:55:07" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId41" minRId="110">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1984F108-6015-4433-A0AA-0FF09F57B1F6}" dateTime="2023-07-27T15:56:32" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId42">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2AB4D2D5-04CB-4E14-A35A-2BD7C4F64F95}" dateTime="2023-07-27T17:05:41" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId43" minRId="111">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7B3B0B44-58B7-45A9-AA6F-7A959633E708}" dateTime="2023-07-27T17:09:02" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId44" minRId="112">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3887AC70-9431-4FAB-8A11-67AA07488BEF}" dateTime="2023-07-27T17:14:34" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId45" minRId="113">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E9285D2C-474B-41E2-A053-8032FF0ECEB8}" dateTime="2023-07-27T18:39:12" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId46" minRId="114" maxRId="115">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8ACD2369-0639-4AA7-83E6-5A47EDC579B1}" dateTime="2023-07-27T19:22:51" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId47" minRId="116">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{519000BF-747A-463C-A2B6-4E17E62AE7A4}" dateTime="2023-07-28T13:35:34" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId48" minRId="117" maxRId="128">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1A03FD72-5BEE-464E-8871-AC7D76987249}" dateTime="2023-07-28T14:30:46" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId49" minRId="129" maxRId="163">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A49954D6-0B52-494B-B310-C1C5009514A8}" dateTime="2023-07-28T14:33:56" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId50" minRId="164" maxRId="166">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{12920AF1-35A0-4823-8D3B-73499E1A046E}" dateTime="2023-07-28T16:51:21" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId51" minRId="167" maxRId="176">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{48684EE3-7037-437B-84E2-BE1E79991A4E}" dateTime="2023-07-28T16:56:16" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId52" minRId="177" maxRId="182">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AF45BCD3-6053-4268-86B8-77338343E684}" dateTime="2023-07-28T17:05:23" maxSheetId="10" userName="Sandeep Thadoju" r:id="rId53" minRId="183">
+    <sheetIdMap count="9">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{35C93B19-B0A2-4B03-B3A6-A60250643E97}" dateTime="2023-07-28T19:06:02" maxSheetId="11" userName="Sandeep Thadoju" r:id="rId54" minRId="184" maxRId="215">
+    <sheetIdMap count="10">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D6119CA9-68A2-4568-B80E-2C89C6C861C8}" dateTime="2023-07-28T21:03:02" maxSheetId="12" userName="Sandeep Thadoju" r:id="rId55" minRId="216" maxRId="244">
+    <sheetIdMap count="11">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B459AD46-2A80-4AF5-A2E4-96961571E18E}" dateTime="2023-07-28T21:15:31" maxSheetId="12" userName="Sandeep Thadoju" r:id="rId56" minRId="245" maxRId="246">
+    <sheetIdMap count="11">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -614,6 +1385,274 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="21" sheetId="1" oldName="[MSLTestdata.xlsx]PI_InsBillInfo" newName="[MSLTestdata.xlsx]PI_InsBillingInfo"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="22" sId="1">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>IB_LocAddHouse#</t>
+      </is>
+    </oc>
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>IB_LocAddHouse</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="23" sId="1">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>122 344 5465</t>
+      </is>
+    </oc>
+    <nc r="N2">
+      <v>1223445465</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="24" sId="1" odxf="1" dxf="1">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>PDC_FinStability</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="25" sId="1" odxf="1" dxf="1">
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>688 - 700</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="26" sId="1">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>PDC_FinStability</t>
+      </is>
+    </oc>
+    <nc r="P1"/>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>688 - 700</t>
+      </is>
+    </oc>
+    <nc r="P2"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="28" sId="3">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Private Passenger</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>PRIVATE PASSENGER</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="29" sId="3">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>AllState</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>ALLSTATE</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="30" sId="3">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>Auto_OtherInfPrCarAutoInf</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Auto_OtherInfPrCarAutoInfBtn</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="3">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>Auto_APC#ofYrs</t>
+      </is>
+    </oc>
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Auto_APCNofYrs</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="3">
+    <oc r="Q1" t="inlineStr">
+      <is>
+        <t>Auto_APCOK</t>
+      </is>
+    </oc>
+    <nc r="Q1" t="inlineStr">
+      <is>
+        <t>Auto_APC_OK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="3">
+    <oc r="S1" t="inlineStr">
+      <is>
+        <t>Auto _Underwting Info
+Is this vehicle titled in insured's personal name?</t>
+      </is>
+    </oc>
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>UW_IsThisVehicleTitledInsPer</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="3">
+    <oc r="T2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="T2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="3">
+    <oc r="T1" t="inlineStr">
+      <is>
+        <t>Auto_Underwriting Info
+Does Vehicle have advertising or signage.</t>
+      </is>
+    </oc>
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>UW_DoesVehicleHaveAdvertisingSignage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="3">
+    <oc r="U1" t="inlineStr">
+      <is>
+        <t>Auto_Underwriting Info
+Is vechile used in delivery of, transporting of,
+materials, products or persons?</t>
+      </is>
+    </oc>
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>UW_IsVechileUsedDeliveryTransporting</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="3">
+    <oc r="V1" t="inlineStr">
+      <is>
+        <t>Auto_Underwriting Info
+Do you use this vehicle to travel to
+ multiple job sites or clients daily.?</t>
+      </is>
+    </oc>
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>UW_DoYouUseThisVehicleTravel</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="38" sId="3" numFmtId="4">
+    <oc r="N2">
+      <v>10000</v>
+    </oc>
+    <nc r="N2">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="3" numFmtId="4">
+    <oc r="O2">
+      <v>30000</v>
+    </oc>
+    <nc r="O2">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="3">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>ALLSTATE</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>AAAAA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="3" sqref="M2">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rfmt sheetId="1" sqref="A1048576:XFD1048576" start="0" length="0">
@@ -625,6 +1664,395 @@
       </border>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="41" sId="7">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="1">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="2">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="3" odxf="1" dxf="1">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="bottom" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="45" sId="4">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_LicInfoLicStatus</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfoLicStatus</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="4">
+    <oc r="G1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Gender</t>
+      </is>
+    </oc>
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_Gender</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="4">
+    <oc r="H1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_MaritalStatus</t>
+      </is>
+    </oc>
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_MaritalStatus</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="48" sId="4">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_LicInfLicNo.</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfLicNo.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="4">
+    <oc r="F1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_SSN</t>
+      </is>
+    </oc>
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_SSN</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="4">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_DOB</t>
+      </is>
+    </oc>
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_DOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="4">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Occupation</t>
+      </is>
+    </oc>
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_Occupation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="4">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Date</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_Date</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="4">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>Driver/HHMem_Acc/Vio</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_AccVio</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="4" sqref="K2">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mm\-dd\-yyyy"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" sqref="K3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="mm\-dd\-yyyy"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="54" sId="4">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfLicNo.</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Driver_HHMem_LicInfLicNo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="4">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Licensed : 4 years</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Licensed: 4 years</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="56" sId="4">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="57" sId="4">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>Drivers</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>DriversTab</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="4">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>Driver 1</t>
+      </is>
+    </oc>
+    <nc r="C2"/>
+  </rcc>
+  <rcc rId="59" sId="4">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>Driver 2</t>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="4">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="4">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="62" sId="4" ref="C1:C1048576" action="insertCol"/>
+  <rcc rId="63" sId="4" odxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>IB_AddNamedInFirst</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="4" sqref="C2" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" sqref="C3" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="4" sqref="C1:C1048576" start="0" length="0">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="64" sId="4">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Sen</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="65" sId="4">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>IB_AddNamedInFirst</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Driver_TabName</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="66" sId="4" ref="C1:C1048576" action="insertCol"/>
+  <rm rId="67" sheetId="4" source="E1:E1048576" destination="C1:C1048576" sourceSheetId="4">
+    <rfmt sheetId="4" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf>
+        <alignment horizontal="left" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rrc rId="68" sId="4" ref="E1:E1048576" action="deleteCol">
+    <rfmt sheetId="4" xfDxf="1" sqref="E1:E1048576" start="0" length="0"/>
+  </rrc>
+  <rcc rId="69" sId="4">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>TC01-NewQuoteTwo</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="70" sId="4">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Sen</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Sen Weyne</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -646,6 +2074,464 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="71" sId="4">
+    <oc r="M3" t="inlineStr">
+      <is>
+        <t>At Fault Accident &gt;=$100,000</t>
+      </is>
+    </oc>
+    <nc r="M3" t="inlineStr">
+      <is>
+        <t>At Fault Accident &gt;= $100,000</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="72" sId="6">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>Water Damage- Weather</t>
+      </is>
+    </oc>
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>WW</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="6">
+    <oc r="AF2" t="inlineStr">
+      <is>
+        <t>Click check box</t>
+      </is>
+    </oc>
+    <nc r="AF2" t="inlineStr">
+      <is>
+        <t>chkBurglarLocal</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="6">
+    <oc r="AF1" t="inlineStr">
+      <is>
+        <t>DI_HDLocal Burglar</t>
+      </is>
+    </oc>
+    <nc r="AF1" t="inlineStr">
+      <is>
+        <t>DI_HomeDiscCheckBoxValues</t>
+      </is>
+    </nc>
+  </rcc>
+  <rsnm rId="75" sheetId="5" oldName="[MSLTestdata.xlsx]Driver Assignment" newName="[MSLTestdata.xlsx]Driver_Assignment"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="76" sheetId="6" oldName="[MSLTestdata.xlsx]Home_DwlInfo" newName="[MSLTestdata.xlsx]Home_Dwelling"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="77" sheetId="8" name="[MSLTestdata.xlsx]Umbrella" sheetPosition="7"/>
+  <ris rId="78" sheetId="9" name="[MSLTestdata.xlsx]Other_Info" sheetPosition="8"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="79" sId="5">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" sId="6" odxf="1">
+    <oc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-1</t>
+      </is>
+    </oc>
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="81" sId="5">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>Driver Assignment_Veh2018 FORD F-150 PKP4X44DPrimOper</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>DA_VehPrimaryOpeOne</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="82" sId="5">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>DA_VehOssOperator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" sId="5">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>DA_VehPrimaryOpeOne</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>DA_VehPrimaryOpeator</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="84" sId="5">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>Sen Weyne</t>
+      </is>
+    </oc>
+    <nc r="C2"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="85" sId="6">
+    <oc r="E1" t="inlineStr">
+      <is>
+        <t>DI_#OfFFam</t>
+      </is>
+    </oc>
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>DI_NoOfFFam</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="86" sId="6">
+    <oc r="F1" t="inlineStr">
+      <is>
+        <t>DI_#ofApts/units</t>
+      </is>
+    </oc>
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>DI_NoofAptsUnits</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="87" sId="6">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>DI_Any Losses during the last 3 years?</t>
+      </is>
+    </oc>
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>DI_LossesDuring3Years</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="88" sId="6">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>DI_HLM Type of Loss</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>DI_HLMTypeOfLoss</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="89" sId="6">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>DI_HLH DateofLoss</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>DI_HLHDateofLoss</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="90" sId="6">
+    <oc r="N1" t="inlineStr">
+      <is>
+        <t>DI_HLH Paid by</t>
+      </is>
+    </oc>
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>DI_HLHPaidBy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="91" sId="6">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>DI_HLH-BrefDesofLoss</t>
+      </is>
+    </oc>
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>DI_HLH_BrefDesofLoss</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="6">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>DI_HLH-Add/Save</t>
+      </is>
+    </oc>
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>DI_HLH-AddSave</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="6">
+    <oc r="R1" t="inlineStr">
+      <is>
+        <t>DI_Is there a swimming pool?</t>
+      </is>
+    </oc>
+    <nc r="R1" t="inlineStr">
+      <is>
+        <t>DI_IsSwimmingPool</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="6">
+    <oc r="S1" t="inlineStr">
+      <is>
+        <t>Are there any animals?</t>
+      </is>
+    </oc>
+    <nc r="S1" t="inlineStr">
+      <is>
+        <t>DI_AnyAnimals</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="6">
+    <oc r="T1" t="inlineStr">
+      <is>
+        <t>Is there any trampoline?</t>
+      </is>
+    </oc>
+    <nc r="T1" t="inlineStr">
+      <is>
+        <t>DI_AnyTrampoline</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="6">
+    <oc r="U1" t="inlineStr">
+      <is>
+        <t>Is there a skate board ramp or biscycle jump?</t>
+      </is>
+    </oc>
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>DI_SkateBoardRampBiscycleJump</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="6">
+    <oc r="V1" t="inlineStr">
+      <is>
+        <t>Is the property situated on more than 5 acres?</t>
+      </is>
+    </oc>
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>DI_PropertyMoreThan5Acres</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="6">
+    <oc r="X1" t="inlineStr">
+      <is>
+        <t>DI_HR-RoofingNotUpdated</t>
+      </is>
+    </oc>
+    <nc r="X1" t="inlineStr">
+      <is>
+        <t>DI_HR_RoofingNotUpdated</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="6">
+    <oc r="Y1" t="inlineStr">
+      <is>
+        <t>DI_HR-WiringNotUpdated</t>
+      </is>
+    </oc>
+    <nc r="Y1" t="inlineStr">
+      <is>
+        <t>DI_HR_WiringNotUpdated</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="6">
+    <oc r="W2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="W2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="6">
+    <oc r="X2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="X2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="6">
+    <oc r="Y2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="Y2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="6">
+    <oc r="Z1" t="inlineStr">
+      <is>
+        <t>DI_HR-Is there a minimu 100 amp circuit breakers?</t>
+      </is>
+    </oc>
+    <nc r="Z1" t="inlineStr">
+      <is>
+        <t>DI_HR_Min100AmpCircuitBreakers</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="6">
+    <oc r="AA1" t="inlineStr">
+      <is>
+        <t>DI_HR-Are there any fuses in the dwellig?</t>
+      </is>
+    </oc>
+    <nc r="AA1" t="inlineStr">
+      <is>
+        <t>DI_HR_AnyFusesInDwellig</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="6">
+    <oc r="AC1" t="inlineStr">
+      <is>
+        <t>DI_HR-Plumbing NotUpdated</t>
+      </is>
+    </oc>
+    <nc r="AC1" t="inlineStr">
+      <is>
+        <t>DI_HR_PlumbingNotUpdated</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="6">
+    <oc r="AB2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="AB2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="6">
+    <oc r="AC2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="AC2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="6">
+    <oc r="AJ1" t="inlineStr">
+      <is>
+        <t>DI_CovInfWind/Hailded</t>
+      </is>
+    </oc>
+    <nc r="AJ1" t="inlineStr">
+      <is>
+        <t>DI_CovInfWindHailded</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="2" sId="2" odxf="1" dxf="1">
@@ -661,6 +2547,1294 @@
     </nc>
     <odxf/>
     <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="109" sId="6">
+    <oc r="AM1" t="inlineStr">
+      <is>
+        <t>DI_Numberof owner Occupied Homes
+ policyholder has insured with secura.</t>
+      </is>
+    </oc>
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>DI_PolicyHolderInsuredWithSecura</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="110" sId="6">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>Secura.</t>
+      </is>
+    </oc>
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>S</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="6" sqref="L2">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="111" sId="6">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>DI_HLH-AddSave</t>
+      </is>
+    </oc>
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>DI_HLH_AddSave</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="112" sId="6">
+    <oc r="R2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="R2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="113" sId="6">
+    <oc r="AB1" t="inlineStr">
+      <is>
+        <t>DI_HR-Heating Notupdated</t>
+      </is>
+    </oc>
+    <nc r="AB1" t="inlineStr">
+      <is>
+        <t>DI_HR-HeatingNotupdated</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="114" sId="6" eol="1" ref="A3:XFD3" action="insertRow"/>
+  <rcc rId="115" sId="6">
+    <nc r="AH3" t="inlineStr">
+      <is>
+        <t>Form 3 (Homeowners)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="116" sId="6">
+    <oc r="AH3" t="inlineStr">
+      <is>
+        <t>Form 3 (Homeowners)</t>
+      </is>
+    </oc>
+    <nc r="AH3"/>
+  </rcc>
+  <rfmt sheetId="6" sqref="AL2" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="8" sqref="D2" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="117" sId="8" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Regression Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="118" sId="8" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Transaction Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="8" xfDxf="1" sqref="C1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" xfDxf="1" sqref="D1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" xfDxf="1" sqref="E1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" xfDxf="1" sqref="F1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" xfDxf="1" sqref="G1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="8" xfDxf="1" sqref="A2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="119" sId="8" xfDxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="120" sId="8" xfDxf="1" dxf="1">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Click the checkbox</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="121" sId="8" xfDxf="1" dxf="1" numFmtId="4">
+    <nc r="D2">
+      <v>1000000</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="122" sId="8" xfDxf="1" dxf="1">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="123" sId="8" xfDxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="8" xfDxf="1" sqref="G2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="124" sId="8" odxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="125" sId="8">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>UM_IncludeUMQuote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="8">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>UM_Limit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="127" sId="8">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>UM_AppRejectedUnderInsuredMotoristCov</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="8">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>UM_AppRejectedUnInsuredMotoristCov</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="9" sqref="D4" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="129" sId="9" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Regression Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="130" sId="9" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Transaction Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="C1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="131" sId="9" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>OI_Expirationdate</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="132" sId="9" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>Auto_PCBILimits_Perperson/PerOccurnace</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="133" sId="9" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>Auto_PCBILim_Combined Single Limt</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="134" sId="9" xfDxf="1" dxf="1">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Auto_#Ofyearsinsured</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="H1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="I1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="135" sId="9" xfDxf="1" dxf="1">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Auto_Existing damage to any of the vehicles?</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="K1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="136" sId="9" xfDxf="1" dxf="1">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>Auto_Any car keptt at school?</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="M1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="N1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="O1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="P1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="Q1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="A2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="B2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="C2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="D2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="E2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="F2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="G2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="H2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="I2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="J2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="K2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="L2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="M2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="N2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="O2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="P2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="Q2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="A3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="B3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="C3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="D3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="E3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="F3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="G3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="H3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="I3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="J3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="K3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="L3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="M3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="N3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="O3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="P3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="Q3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="9" xfDxf="1" sqref="A4" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="137" sId="9" xfDxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="C4" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="138" sId="9" xfDxf="1" dxf="1" numFmtId="19">
+    <nc r="D4">
+      <v>45638</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="139" sId="9" xfDxf="1" dxf="1">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>10,000/20,000</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="F4" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="140" sId="9" xfDxf="1" dxf="1">
+    <nc r="G4">
+      <v>3</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="141" sId="9" xfDxf="1" dxf="1">
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="142" sId="9" xfDxf="1" dxf="1">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="143" sId="9" xfDxf="1" dxf="1">
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="144" sId="9" xfDxf="1" dxf="1">
+    <nc r="K4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="145" sId="9" xfDxf="1" dxf="1">
+    <nc r="L4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="146" sId="9" xfDxf="1" dxf="1">
+    <nc r="M4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="147" sId="9" xfDxf="1" dxf="1">
+    <nc r="N4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="148" sId="9" xfDxf="1" dxf="1">
+    <nc r="O4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="149" sId="9" xfDxf="1" dxf="1">
+    <nc r="P4" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="9" xfDxf="1" sqref="Q4" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="150" sId="9">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>Auto_With the exception of any encumbrances,are any vehicles not solely owned by and registered to the applicant?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="151" sId="9">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>Auto_Any car modfied/special equipment?(Include customized vans/pickups)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="152" sId="9">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>Auto_Any other losses incurred?(not shown in accident /conviction area)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="9">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>Auto_Any other auto insurance in household? (Include any provided by employer)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="9">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>Auto_Any financial responsibilty filing (driver number and date of filing)?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="155" sId="9">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>Auto_Any coverage declined,cancelled, or non-renewed during the last 3 years?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="9">
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>Are any vehicles used for ride sharing (i.e Uber, lyft) to transport people for hire?</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="157" sheetId="9" source="A4:XFD4" destination="A2:XFD2" sourceSheetId="9">
+    <rfmt sheetId="9" xfDxf="1" sqref="A2:XFD2" start="0" length="0"/>
+    <rfmt sheetId="9" sqref="A2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="B2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="C2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="D2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="E2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="F2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="G2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="H2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="I2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="J2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="K2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="L2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="M2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="N2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="O2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="P2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="9" sqref="Q2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="158" sId="9" odxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="159" sId="9">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>ALLSTATE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="9">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>OI_AT_GIPriorCarrier</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="8">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>Click the checkbox</t>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="8">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="8">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <t>Click checkbox</t>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
   </rcc>
 </revisions>
 </file>
@@ -771,6 +3945,1538 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="164" sId="9">
+    <oc r="G1" t="inlineStr">
+      <is>
+        <t>Auto_#Ofyearsinsured</t>
+      </is>
+    </oc>
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>Auto_NoOfyearsinsured</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="9">
+    <oc r="H1" t="inlineStr">
+      <is>
+        <t>Auto_With the exception of any encumbrances,are any vehicles not solely owned by and registered to the applicant?</t>
+      </is>
+    </oc>
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>AT_AnyEncumbrancesVehicleNotSolelyOwned</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="9">
+    <oc r="H2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="H2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="167" sId="9">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>Auto_Any car modfied/special equipment?(Include customized vans/pickups)</t>
+      </is>
+    </oc>
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>AT_CarModifiedSpecialEquipment</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="9">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="9">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="9">
+    <oc r="K2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="9">
+    <oc r="L2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="172" sId="9">
+    <oc r="M2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="9">
+    <oc r="N2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="174" sId="9">
+    <oc r="O2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="175" sId="9">
+    <oc r="P2" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </oc>
+    <nc r="P2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="176" sId="9">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>Auto_Existing damage to any of the vehicles?</t>
+      </is>
+    </oc>
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>AT_ExistingDamageToVehicle</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="177" sId="9">
+    <oc r="K1" t="inlineStr">
+      <is>
+        <t>Auto_Any other losses incurred?(not shown in accident /conviction area)</t>
+      </is>
+    </oc>
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>AT_AnyOtherLosses</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="178" sId="9">
+    <oc r="L1" t="inlineStr">
+      <is>
+        <t>Auto_Any car keptt at school?</t>
+      </is>
+    </oc>
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>AT_AnyCarKeptAtSchool</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="9">
+    <oc r="M1" t="inlineStr">
+      <is>
+        <t>Auto_Any other auto insurance in household? (Include any provided by employer)</t>
+      </is>
+    </oc>
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>AT_AnyAutoInsuredHousehold</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="180" sId="9">
+    <oc r="N1" t="inlineStr">
+      <is>
+        <t>Auto_Any financial responsibilty filing (driver number and date of filing)?</t>
+      </is>
+    </oc>
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>AT_AnyFinancialRespoFilling</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="181" sId="9">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>Auto_Any coverage declined,cancelled, or non-renewed during the last 3 years?</t>
+      </is>
+    </oc>
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>AT_AnyCoveDeclinedCanceled3Years</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="182" sId="9">
+    <oc r="P1" t="inlineStr">
+      <is>
+        <t>Are any vehicles used for ride sharing (i.e Uber, lyft) to transport people for hire?</t>
+      </is>
+    </oc>
+    <nc r="P1" t="inlineStr">
+      <is>
+        <t>AT_AnyVehicleUsedRideSharing</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="183" sheetId="9" oldName="[MSLTestdata.xlsx]Other_Info" newName="[MSLTestdata.xlsx]OtherInfo_Auto"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="184" sheetId="10" name="[MSLTestdata.xlsx]OtherInfo_PrimaryDwelling" sheetPosition="9"/>
+  <rfmt sheetId="10" sqref="D3" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="185" sId="10" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Regression Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="186" sId="10" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Transaction Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="187" sId="10" xfDxf="1" dxf="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>PrimDwel_PriorCarrier</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="188" sId="10" xfDxf="1" dxf="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>PrimDwel_ExpDate</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="E1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="F1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="G1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="H1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="I1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="J1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="K1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="L1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="M1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="N1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="O1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="P1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="A2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="B2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="C2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="D2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="E2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="F2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="G2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="H2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="I2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="J2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="K2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="L2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="M2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="N2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="O2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="P2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="A3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="189" sId="10" xfDxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="190" sId="10" xfDxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>All State</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="191" sId="10" xfDxf="1" dxf="1" numFmtId="19">
+    <nc r="D3">
+      <v>45638</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="192" sId="10" xfDxf="1" dxf="1">
+    <nc r="E3">
+      <v>4</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="193" sId="10" xfDxf="1" dxf="1">
+    <nc r="F3">
+      <v>2010</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="194" sId="10" xfDxf="1" dxf="1">
+    <nc r="G3">
+      <v>1200</v>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="195" sId="10" xfDxf="1" dxf="1">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="10" xfDxf="1" sqref="I3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="J3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="K3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="L3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="M3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="N3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="O3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="10" xfDxf="1" sqref="P3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="196" sId="10" ref="A2:XFD2" action="deleteRow">
+    <rfmt sheetId="10" xfDxf="1" sqref="A2:XFD2" start="0" length="0"/>
+    <rfmt sheetId="10" sqref="A2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="B2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="C2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="D2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="E2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="F2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="G2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="H2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="I2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="J2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="K2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="L2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="M2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="N2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="O2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="10" sqref="P2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="197" sId="10" odxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="198" sId="10">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>PD_YearsInsuredWithPrioCar</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="199" sId="10">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>PD_YearOfOccupancy</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="200" sId="10">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>PD_TotalLivingArea</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="201" sId="10">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>PD_AnyBusinesConductedPremises</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="202" sId="10">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>PD_AnyOtherResidenceOwnedOccupiedRented</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="203" sId="10">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="204" sId="10">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="205" sId="10">
+    <nc r="K2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="206" sId="10">
+    <nc r="L2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="207" sId="10">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="10">
+    <nc r="N2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="209" sId="10">
+    <nc r="O2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="210" sId="10">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>PD_AnyCoverageDeclinedCancelledNonRenewedLast3Years</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="211" sId="10">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>PD_AnyOutbuildingsOtherThanPrivateGarage</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="212" sId="10">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>PD_ApplicantOwnAnyRecreationalVehicles</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="213" sId="10">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>PD_ApplicantLivedLess3YearsCurrentAddress</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="214" sId="10">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>AnyFarmingOnPremises</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="215" sId="10">
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>PropertyRentedOutHomeSharingAirBbBVRBo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="216" sId="10">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>All State</t>
+      </is>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>ALLSTATE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="217" sId="10">
+    <oc r="N1" t="inlineStr">
+      <is>
+        <t>AnyFarmingOnPremises</t>
+      </is>
+    </oc>
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>PD_AnyFarmingOnPremises</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="218" sId="10">
+    <oc r="O1" t="inlineStr">
+      <is>
+        <t>PropertyRentedOutHomeSharingAirBbBVRBo</t>
+      </is>
+    </oc>
+    <nc r="O1" t="inlineStr">
+      <is>
+        <t>PD_PropertyRentedOutHomeSharingAirBbBVRBo</t>
+      </is>
+    </nc>
+  </rcc>
+  <ris rId="219" sheetId="11" name="[MSLTestdata.xlsx]Sheet1" sheetPosition="10"/>
+  <rcc rId="220" sId="11" xfDxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Regression Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="221" sId="11" xfDxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Transaction Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="11" xfDxf="1" sqref="C1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="D1" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="222" sId="11" xfDxf="1" dxf="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>OI_GIAgncyContactPh</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="223" sId="11" xfDxf="1" dxf="1">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>OI_PaymentInfo</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="11" xfDxf="1" sqref="A2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="B2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="C2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="D2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="E2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="F2" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="11" xfDxf="1" sqref="A3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="224" sId="11" xfDxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="225" sId="11" xfDxf="1" dxf="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Antony</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="226" sId="11" xfDxf="1" dxf="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Antony@email.com</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="11" xfDxf="1" sqref="E3" start="0" length="0">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="227" sId="11" xfDxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>No down payment</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="228" sId="11" xfDxf="1" dxf="1">
+    <nc r="A4" t="inlineStr">
+      <is>
+        <t>TC_2</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="229" sId="11" xfDxf="1" dxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="230" sId="11" xfDxf="1" dxf="1">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>Daniel</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="231" sId="11" xfDxf="1" dxf="1">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>Daniel@email.com</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="232" sId="11" xfDxf="1" dxf="1">
+    <nc r="E4" t="inlineStr">
+      <is>
+        <t>(263) 523-7372</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="233" sId="11" xfDxf="1" dxf="1">
+    <nc r="F4" t="inlineStr">
+      <is>
+        <t>No down payment</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="234" sId="11" xfDxf="1" dxf="1">
+    <nc r="A5" t="inlineStr">
+      <is>
+        <t>TC_3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="235" sId="11" xfDxf="1" dxf="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="236" sId="11" xfDxf="1" dxf="1">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>Rachel</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="237" sId="11" xfDxf="1" dxf="1">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>Rachel@email.com</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="238" sId="11" xfDxf="1" dxf="1">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>(273) 672-6473</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="239" sId="11" xfDxf="1" dxf="1">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>No down payment</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="240" sId="11">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>OI_GIAgencyEMail</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="241" sId="11" ref="A2:XFD2" action="deleteRow">
+    <rfmt sheetId="11" xfDxf="1" sqref="A2:XFD2" start="0" length="0"/>
+    <rfmt sheetId="11" sqref="A2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="B2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="C2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="D2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="E2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="11" sqref="F2" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="11"/>
+          <color rgb="FF000000"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+        <alignment horizontal="left" vertical="top" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="242" sId="11" odxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="243" sId="11">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>OI_GI_AgencyContact</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="244" sId="11">
+    <nc r="E2">
+      <v>8847838782</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="245" sId="10">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>PrimDwel_PriorCarrier</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>PD_PriorCarrier</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="10">
+    <oc r="D1" t="inlineStr">
+      <is>
+        <t>PrimDwel_ExpDate</t>
+      </is>
+    </oc>
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>PD_ExpDate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="14" sId="7">
@@ -804,8 +5510,61 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="18" sId="7">
+    <oc r="E2" t="inlineStr">
+      <is>
+        <t>IN</t>
+      </is>
+    </oc>
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>W</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="1">
+    <oc r="C2" t="inlineStr">
+      <is>
+        <t>480001 - WI Agency</t>
+      </is>
+    </oc>
+    <nc r="C2">
+      <v>4</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1" odxf="1" dxf="1" quotePrefix="1">
+    <oc r="C2">
+      <v>4</v>
+    </oc>
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>4</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+  <userInfo guid="{519000BF-747A-463C-A2B6-4E17E62AE7A4}" name="Sandeep Thadoju" id="-404409804" dateTime="2023-07-28T13:33:19"/>
+  <userInfo guid="{AF45BCD3-6053-4268-86B8-77338343E684}" name="Sandeep Thadoju" id="-404376847" dateTime="2023-07-28T18:21:44"/>
+  <userInfo guid="{AF45BCD3-6053-4268-86B8-77338343E684}" name="Sandeep Thadoju" id="-404366526" dateTime="2023-07-28T18:41:58"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1073,50 +5832,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1124,135 +5886,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.90625" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
+    <col min="10" max="10" width="52" customWidth="1"/>
+    <col min="11" max="11" width="41.81640625" customWidth="1"/>
+    <col min="12" max="12" width="38" customWidth="1"/>
+    <col min="13" max="13" width="50.08984375" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="19">
+        <v>45638</v>
+      </c>
+      <c r="E2" s="17">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>2010</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1200</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="17"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="15">
+        <v>8847838782</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="16" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="10"/>
+    <col min="1" max="1" width="16.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="16" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="H2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2143</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="L2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="10">
+        <v>54817</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1223445465</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="11">
-        <v>2143</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="11">
-        <v>54817</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="P2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1266,7 +6267,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1286,40 +6287,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>135</v>
+      <c r="A2" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="A2" sqref="A2"/>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="F20" sqref="F20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="F20" sqref="F20"/>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="C15" sqref="C15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1363,7 +6364,7 @@
     <col min="24" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1371,90 +6372,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>135</v>
+      <c r="A2" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="5">
         <v>2000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="7">
         <v>50000</v>
@@ -1463,46 +6464,46 @@
         <v>2000</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="8">
+        <v>94</v>
+      </c>
+      <c r="M2" s="12">
         <v>45638</v>
       </c>
       <c r="N2" s="7">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="O2" s="7">
-        <v>30000</v>
+        <v>3</v>
       </c>
       <c r="P2" s="3">
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -1510,12 +6511,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -1528,28 +6529,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="20" style="1"/>
-    <col min="4" max="4" width="30.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1"/>
-    <col min="10" max="10" width="26" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1"/>
-    <col min="12" max="12" width="35.1796875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="20" style="1"/>
+    <col min="4" max="4" width="19" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1"/>
+    <col min="11" max="11" width="26" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1"/>
+    <col min="13" max="13" width="35.1796875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="20" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1557,114 +6559,123 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>312563456</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2">
+        <v>32854</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="13">
+        <v>44907</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <v>762563489</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2">
+        <v>33219</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="2">
-        <v>32854</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="2">
-        <v>44907</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="1">
-        <v>762563489</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="2">
-        <v>33219</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="L3" s="13">
         <v>44927</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>84</v>
+      <c r="M3" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D24" sqref="D24"/>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="E20" sqref="E19:E20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="E20" sqref="E19:E20"/>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1674,10 +6685,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1685,9 +6696,10 @@
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,28 +6707,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="C14" sqref="C14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="C14" sqref="C14"/>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1729,12 +6741,12 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" style="3" customWidth="1"/>
@@ -1773,7 +6785,7 @@
     <col min="40" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1781,126 +6793,126 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="AG1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="AK1" s="3" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>128</v>
+        <v>76</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>135</v>
+      <c r="A2" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3">
         <v>2010</v>
@@ -1912,88 +6924,88 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="8">
+        <v>110</v>
+      </c>
+      <c r="L2" s="14">
         <v>44843</v>
       </c>
       <c r="M2" s="3">
         <v>800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="AI2" s="7">
         <v>1000</v>
@@ -2004,21 +7016,251 @@
       <c r="AK2" s="3">
         <v>4500000</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="7">
         <v>1000</v>
       </c>
       <c r="AM2" s="3">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AC1">
+      <selection activeCell="AG11" sqref="AG11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="15"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="E6" sqref="E6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AC1">
-      <selection activeCell="AG11" sqref="AG11"/>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="36.36328125" customWidth="1"/>
+    <col min="10" max="10" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.36328125" customWidth="1"/>
+    <col min="12" max="12" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.453125" customWidth="1"/>
+    <col min="14" max="14" width="25.1796875" customWidth="1"/>
+    <col min="15" max="15" width="34" customWidth="1"/>
+    <col min="16" max="16" width="27.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="19">
+        <v>45638</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17">
+        <v>3</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="17"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
@@ -23,11 +23,13 @@
     <sheet name="OtherInfo_Auto" sheetId="9" r:id="rId9"/>
     <sheet name="OtherInfo_PrimaryDwelling" sheetId="10" r:id="rId10"/>
     <sheet name="OtherInfo_GenInfo" sheetId="11" r:id="rId11"/>
+    <sheet name="OtherInfo_Umbrella" sheetId="13" r:id="rId12"/>
+    <sheet name="Rate_Details" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="13"/>
     <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="4"/>
-    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="10"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="205">
   <si>
     <t>Regression Name</t>
   </si>
@@ -145,9 +147,6 @@
     <t>Auto_CovBI</t>
   </si>
   <si>
-    <t>300/300</t>
-  </si>
-  <si>
     <t>Auto_CovPD</t>
   </si>
   <si>
@@ -593,6 +592,69 @@
   </si>
   <si>
     <t>PD_ExpDate</t>
+  </si>
+  <si>
+    <t>DI_BTN_Questions</t>
+  </si>
+  <si>
+    <t>DQ_BTN_Yes</t>
+  </si>
+  <si>
+    <t>TC01-NewQuoteRedo</t>
+  </si>
+  <si>
+    <t>BTN_Rate</t>
+  </si>
+  <si>
+    <t>BTN_AddressValidationYes</t>
+  </si>
+  <si>
+    <t>BTN_ViewAuto</t>
+  </si>
+  <si>
+    <t>BTN_ViewPrimaryResidency</t>
+  </si>
+  <si>
+    <t>BTN_ViewUmbrella</t>
+  </si>
+  <si>
+    <t>BTN_ScondaryResidency</t>
+  </si>
+  <si>
+    <t>AutoPremium</t>
+  </si>
+  <si>
+    <t>PrimaryResidencyPremium</t>
+  </si>
+  <si>
+    <t>UmbrellaPremium</t>
+  </si>
+  <si>
+    <t>TotalPremium</t>
+  </si>
+  <si>
+    <t>BTN_RateMessageOK</t>
+  </si>
+  <si>
+    <t>BTN_RateClose</t>
+  </si>
+  <si>
+    <t>DI_CovInfPersonalLiability</t>
+  </si>
+  <si>
+    <t>500/500</t>
+  </si>
+  <si>
+    <t>AnyAircraftOwnedLeased</t>
+  </si>
+  <si>
+    <t>AnyRealestateVehicle</t>
+  </si>
+  <si>
+    <t>DoYouHoldNonCompensate</t>
+  </si>
+  <si>
+    <t>BTN_UnableToRateOK</t>
   </si>
 </sst>
 </file>
@@ -639,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,6 +756,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +775,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B459AD46-2A80-4AF5-A2E4-96961571E18E}" diskRevisions="1" revisionId="246" version="56">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{62476A8D-E6A6-4E46-B086-B325E8AC5E02}" diskRevisions="1" revisionId="304" version="67">
   <header guid="{563223BB-D620-4E77-9B59-1012413D8BE9}" dateTime="2023-07-21T19:01:50" maxSheetId="7" userName="Swetha Seelasaram" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -1378,6 +1441,187 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
+  <header guid="{66D59C03-5385-4146-8414-7EAF407AA949}" dateTime="2023-07-31T11:47:54" maxSheetId="12" userName="Sandeep Thadoju" r:id="rId57" minRId="247" maxRId="251">
+    <sheetIdMap count="11">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1B7D4B7B-0F1E-40BE-B078-8508ACD3B85D}" dateTime="2023-07-31T12:01:10" maxSheetId="13" userName="Sandeep Thadoju" r:id="rId58" minRId="252">
+    <sheetIdMap count="12">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2B9408C9-B488-44FF-9CE8-8722D2CB904A}" dateTime="2023-07-31T12:20:15" maxSheetId="13" userName="Sandeep Thadoju" r:id="rId59" minRId="253" maxRId="280">
+    <sheetIdMap count="12">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A16EE9D-CB6C-4B28-BD10-61FAF97CC351}" dateTime="2023-07-31T12:22:41" maxSheetId="13" userName="Sandeep Thadoju" r:id="rId60" minRId="281" maxRId="284">
+    <sheetIdMap count="12">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{14E1D605-D956-4B77-9C83-DB509A1E3532}" dateTime="2023-07-31T12:25:41" maxSheetId="13" userName="Sandeep Thadoju" r:id="rId61" minRId="285" maxRId="286">
+    <sheetIdMap count="12">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A841DCB1-B883-4A80-B65C-49D790AD1A68}" dateTime="2023-07-31T12:42:49" maxSheetId="14" userName="Sandeep Thadoju" r:id="rId62" minRId="287" maxRId="289">
+    <sheetIdMap count="13">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F54B8D01-0B0E-4FB5-B17E-4BCB1B96EE0A}" dateTime="2023-07-31T13:37:33" maxSheetId="14" userName="Sandeep Thadoju" r:id="rId63" minRId="290" maxRId="295">
+    <sheetIdMap count="13">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{61644278-84F3-437E-AA67-FE09C21B7759}" dateTime="2023-07-31T14:05:49" maxSheetId="14" userName="Sandeep Thadoju" r:id="rId64" minRId="296">
+    <sheetIdMap count="13">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{74AFC0EC-4863-4797-8546-9F6F4E4520FE}" dateTime="2023-07-31T14:31:06" maxSheetId="14" userName="Sandeep Thadoju" r:id="rId65" minRId="297" maxRId="300">
+    <sheetIdMap count="13">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{368329DD-AB78-4570-BAAF-DC0D7D5BD8EA}" dateTime="2023-07-31T17:48:09" maxSheetId="14" userName="Sandeep Thadoju" r:id="rId66" minRId="301">
+    <sheetIdMap count="13">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{62476A8D-E6A6-4E46-B086-B325E8AC5E02}" dateTime="2023-07-31T17:49:00" maxSheetId="14" userName="Sandeep Thadoju" r:id="rId67" minRId="302" maxRId="304">
+    <sheetIdMap count="13">
+      <sheetId val="7"/>
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="12"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -5477,6 +5721,346 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="247" sId="6">
+    <nc r="AN1" t="inlineStr">
+      <is>
+        <t>DI_BTN_Questions</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="6">
+    <nc r="AO1" t="inlineStr">
+      <is>
+        <t>DQ_BTN_Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="249" sId="6">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>TC01-NewQuoteRedo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="250" sId="6">
+    <nc r="AN3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="6">
+    <nc r="AO3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="252" sheetId="12" name="[MSLTestdata.xlsx]Rate" sheetPosition="11"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="253" sId="12" odxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Regression Name</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="254" sId="12" odxf="1" dxf="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Transaction Name</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="255" sId="12" odxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="256" sId="12" odxf="1" dxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="257" sId="12">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>BTN_Rate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="12">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>BTN_AddressValidationYes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="12">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="12">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="261" sId="12">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>BTN_ViewAuto</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="12">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>BTN_ViewPrimaryResidency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="12">
+    <nc r="G1" t="inlineStr">
+      <is>
+        <t>BTN_ViewUmbrella</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="12">
+    <nc r="H1" t="inlineStr">
+      <is>
+        <t>BTN_ScondaryResidency</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="265" sId="12">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>AutoPremium</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="266" sId="12">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>PrimaryResidencyPremium</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="267" sId="12">
+    <nc r="K1" t="inlineStr">
+      <is>
+        <t>UmbrellaPremium</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="268" sId="12">
+    <nc r="L1" t="inlineStr">
+      <is>
+        <t>TotalPremium</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="12">
+    <nc r="M1" t="inlineStr">
+      <is>
+        <t>BTN_RATE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="270" sId="12">
+    <nc r="M2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="271" sId="12" ref="E1:E1048576" action="insertCol"/>
+  <rcc rId="272" sId="12">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>BTN_RateMessageOK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="273" sId="12" ref="N1:N1048576" action="deleteCol">
+    <rfmt sheetId="12" xfDxf="1" sqref="N1:N1048576" start="0" length="0"/>
+    <rcc rId="0" sId="12">
+      <nc r="N1" t="inlineStr">
+        <is>
+          <t>BTN_RATE</t>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="12">
+      <nc r="N2" t="inlineStr">
+        <is>
+          <t>Click</t>
+        </is>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="274" sId="12">
+    <nc r="N1" t="inlineStr">
+      <is>
+        <t>BTN_RateClose</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="12" sqref="A3" start="0" length="0">
+    <dxf>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="275" sId="12" odxf="1" dxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>NewQuote</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="276" sId="12">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="277" sId="12">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="12">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="12">
+    <nc r="N3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="280" sId="12">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>TC01-NewQuoteRedo</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="14" sId="7">
@@ -5506,6 +6090,225 @@
         <t>IN</t>
       </is>
     </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="281" sId="6">
+    <oc r="AK2">
+      <v>4500000</v>
+    </oc>
+    <nc r="AK2">
+      <v>2500000</v>
+    </nc>
+  </rcc>
+  <rrc rId="282" sId="6" ref="AM1:AM1048576" action="insertCol"/>
+  <rcc rId="283" sId="6">
+    <nc r="AM1" t="inlineStr">
+      <is>
+        <t>DI_CovInfPersonalLiability</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="284" sId="6" numFmtId="4">
+    <nc r="AM2">
+      <v>500000</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="285" sId="3">
+    <oc r="G2" t="inlineStr">
+      <is>
+        <t>300/300</t>
+      </is>
+    </oc>
+    <nc r="G2" t="inlineStr">
+      <is>
+        <t>500/500</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="286" sId="3" numFmtId="4">
+    <oc r="H2">
+      <v>50000</v>
+    </oc>
+    <nc r="H2">
+      <v>250000</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="287" sheetId="13" name="[MSLTestdata.xlsx]OtherInfo_Umbrella" sheetPosition="11"/>
+  <rcc rId="288" sId="13" odxf="1" dxf="1">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>Regression Name</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="289" sId="13" odxf="1" dxf="1">
+    <nc r="A2" t="inlineStr">
+      <is>
+        <t>TC01-NewQuote</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment horizontal="general" vertical="bottom" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment horizontal="left" vertical="top" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="290" sId="13">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>AnyAircraftOwnedLeased</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="291" sId="13">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>AnyRealestateVehicle</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="292" sId="13">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>DoYouHoldNonCompensate</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="13">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="294" sId="13">
+    <nc r="C2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="295" sId="13">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="delete"/>
+  <rcv guid="{C361B274-9BF4-48E2-B593-305609B42D43}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="296" sheetId="12" oldName="[MSLTestdata.xlsx]Rate" newName="[MSLTestdata.xlsx]Rate_Details"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="297" sId="12">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </oc>
+    <nc r="D3"/>
+  </rcc>
+  <rrc rId="298" sId="12" ref="E1:E1048576" action="insertCol"/>
+  <rcc rId="299" sId="12">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>BTN_UnableToRateOK</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="300" sId="12">
+    <nc r="E2" t="inlineStr">
+      <is>
+        <t>Click</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="301" sId="12" odxf="1" dxf="1" numFmtId="4">
+    <nc r="L3">
+      <v>5409</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="302" sId="12" odxf="1" dxf="1" numFmtId="4">
+    <nc r="K3">
+      <v>1904</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="303" sId="12">
+    <nc r="M3">
+      <v>138</v>
+    </nc>
+  </rcc>
+  <rcc rId="304" sId="12" odxf="1" dxf="1" numFmtId="4">
+    <nc r="N3">
+      <v>7451</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </ndxf>
   </rcc>
 </revisions>
 </file>
@@ -5852,27 +6655,27 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5921,55 +6724,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>184</v>
-      </c>
       <c r="E1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="19">
         <v>45638</v>
@@ -5984,28 +6787,28 @@
         <v>1200</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="17"/>
     </row>
@@ -6024,8 +6827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6046,79 +6849,267 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>171</v>
       </c>
       <c r="E2" s="15">
         <v>8847838782</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection sqref="A1:A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="D7" sqref="D7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="20">
+        <v>1904</v>
+      </c>
+      <c r="L3" s="20">
+        <v>5409</v>
+      </c>
+      <c r="M3">
+        <v>138</v>
+      </c>
+      <c r="N3" s="20">
+        <v>7451</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="F1">
+      <selection activeCell="I13" sqref="I13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6174,10 +7165,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>19</v>
@@ -6201,13 +7192,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -6222,7 +7213,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="10">
         <v>2143</v>
@@ -6249,11 +7240,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection sqref="A1:B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6298,7 +7289,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -6315,12 +7306,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="C15" sqref="C15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="F20" sqref="F20"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="C15" sqref="C15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6387,57 +7378,57 @@
         <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -6446,7 +7437,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>32</v>
@@ -6455,22 +7446,22 @@
         <v>2000</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="H2" s="7">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="I2" s="7">
         <v>2000</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M2" s="12">
         <v>45638</v>
@@ -6485,25 +7476,25 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -6511,12 +7502,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -6559,123 +7550,123 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1">
         <v>312563456</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J2" s="2">
         <v>32854</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="13">
         <v>44907</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1">
         <v>762563489</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2">
         <v>33219</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="13">
         <v>44927</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="E20" sqref="E19:E20"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6707,15 +7698,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -6723,12 +7714,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="D6" sqref="D6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="C14" sqref="C14"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6738,15 +7729,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.453125" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" style="3" customWidth="1"/>
@@ -6780,12 +7771,13 @@
     <col min="35" max="35" width="20.26953125" style="3" customWidth="1"/>
     <col min="36" max="36" width="21.54296875" style="3" customWidth="1"/>
     <col min="37" max="37" width="24.54296875" style="3" customWidth="1"/>
-    <col min="38" max="38" width="24.7265625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="42.54296875" style="3" customWidth="1"/>
-    <col min="40" max="16384" width="9.1796875" style="3"/>
+    <col min="38" max="39" width="24.7265625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="42.54296875" style="3" customWidth="1"/>
+    <col min="41" max="41" width="16.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6793,126 +7785,135 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>133</v>
+      <c r="AO1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3">
         <v>2010</v>
@@ -6924,19 +7925,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L2" s="14">
         <v>44843</v>
@@ -6945,67 +7946,67 @@
         <v>800</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="AB2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI2" s="7">
         <v>1000</v>
@@ -7014,25 +8015,39 @@
         <v>2000</v>
       </c>
       <c r="AK2" s="3">
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c r="AL2" s="7">
         <v>1000</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="7">
+        <v>500000</v>
+      </c>
+      <c r="AN2" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="AK1">
+      <selection activeCell="AN5" sqref="AN5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AC1">
       <selection activeCell="AG11" sqref="AG11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7065,37 +8080,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="16">
         <v>1000000</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="15"/>
     </row>
@@ -7146,95 +8161,95 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>156</v>
       </c>
       <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="19">
         <v>45638</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17">
         <v>3</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="17"/>
     </row>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
@@ -29,8 +29,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="13"/>
     <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="14"/>
-    <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="13"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="395">
   <si>
     <t>Regression Name</t>
   </si>
@@ -897,9 +897,6 @@
     <t>Electric</t>
   </si>
   <si>
-    <t>chk Central Station Fire</t>
-  </si>
-  <si>
     <t>Form 6 w/All Risk Contents</t>
   </si>
   <si>
@@ -912,9 +909,6 @@
     <t>Full</t>
   </si>
   <si>
-    <t>chkGated Community</t>
-  </si>
-  <si>
     <t>Form 3 w/All Risk Contents</t>
   </si>
   <si>
@@ -975,9 +969,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>Automatic Sprinkler-Partial</t>
-  </si>
-  <si>
     <t>Form 6 (Condominium)</t>
   </si>
   <si>
@@ -1225,6 +1216,27 @@
   </si>
   <si>
     <t>JH/JJ/JL</t>
+  </si>
+  <si>
+    <t>DA_VehPrimaryOpeatorTwo</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Brick Veneer</t>
+  </si>
+  <si>
+    <t>chkFireCentralStation</t>
+  </si>
+  <si>
+    <t>chkGatedCommunity</t>
+  </si>
+  <si>
+    <t>chkSprinklerPartial</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1325,6 +1337,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,16 +1680,16 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -1687,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1717,43 +1732,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="P1" s="14"/>
     </row>
@@ -1765,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D2" s="16">
         <v>45638</v>
@@ -1813,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="2">
         <v>45575</v>
@@ -1826,27 +1841,27 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>329</v>
+        <v>131</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>329</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1856,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D4" s="2">
         <v>45607</v>
@@ -1903,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D5" s="2">
         <v>46001</v>
@@ -1948,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D6" s="2">
         <v>45573</v>
@@ -1987,12 +2002,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection sqref="A1:B2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2050,16 +2065,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2110,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2194,12 +2209,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="D7" sqref="D7"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="B14" sqref="B14"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D7" sqref="D7"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2233,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>350</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2253,16 +2268,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E2" s="12">
         <v>8847838782</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2273,16 +2288,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2293,16 +2308,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2313,16 +2328,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2333,26 +2348,26 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection sqref="A1:A2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="H35" sqref="H35"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection sqref="A1:A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2396,43 +2411,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2483,12 +2498,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="F1">
+      <selection activeCell="I13" sqref="I13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="E11" sqref="E11"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="F1">
-      <selection activeCell="I13" sqref="I13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2500,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2589,7 +2604,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2637,7 +2652,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -2843,12 +2858,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
+      <selection sqref="A1:B2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="G18" sqref="G18"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
-      <selection sqref="A1:B2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2889,7 +2904,7 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
         <v>77</v>
@@ -2988,12 +3003,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="C15" sqref="C15"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="E17" sqref="E17"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="C15" sqref="C15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -3005,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3053,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -3095,7 +3110,7 @@
         <v>103</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>104</v>
@@ -3248,13 +3263,13 @@
         <v>2021</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>125</v>
@@ -3680,13 +3695,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="W1">
-      <selection activeCell="AH24" sqref="AH24"/>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="F18" sqref="F18"/>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="W1">
+      <selection activeCell="AH24" sqref="AH24"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
@@ -4205,12 +4220,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="G1">
       <selection activeCell="Q16" sqref="Q16"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -4220,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4231,10 +4246,11 @@
     <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4245,10 +4261,13 @@
         <v>210</v>
       </c>
       <c r="D1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -4266,70 +4285,54 @@
       <c r="C3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="D6" sqref="D6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="E26" sqref="E26"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -4341,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AX6" sqref="AX6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4728,8 +4731,8 @@
       <c r="C4" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>278</v>
+      <c r="K4" s="20" t="s">
+        <v>391</v>
       </c>
       <c r="L4" s="3">
         <v>2011</v>
@@ -4752,27 +4755,6 @@
       <c r="R4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="Z4" s="3" t="s">
         <v>131</v>
       </c>
@@ -4816,13 +4798,13 @@
         <v>6</v>
       </c>
       <c r="AR4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="AU4" s="6">
         <v>1000</v>
@@ -4857,7 +4839,7 @@
         <v>269</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L5" s="3">
         <v>2013</v>
@@ -4875,7 +4857,7 @@
         <v>280</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>130</v>
@@ -4929,7 +4911,7 @@
         <v>2015</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK5" s="3">
         <v>2015</v>
@@ -4953,13 +4935,13 @@
         <v>6</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>286</v>
+        <v>393</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AU5" s="3">
         <v>500</v>
@@ -4985,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -4997,19 +4979,19 @@
         <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J6" s="3">
         <v>85128</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L6" s="3">
         <v>2012</v>
@@ -5021,19 +5003,19 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>130</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="T6" s="18">
         <v>44812</v>
@@ -5045,7 +5027,7 @@
         <v>51</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>6</v>
@@ -5099,7 +5081,7 @@
         <v>135</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AU6" s="6">
         <v>1000</v>
@@ -5114,7 +5096,7 @@
         <v>60000</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
@@ -5128,7 +5110,7 @@
         <v>269</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L7" s="3">
         <v>2005</v>
@@ -5140,13 +5122,13 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>131</v>
@@ -5218,7 +5200,7 @@
         <v>135</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AU7" s="3">
         <v>500</v>
@@ -5277,7 +5259,7 @@
         <v>130</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="T8" s="18">
         <v>44480</v>
@@ -5286,7 +5268,7 @@
         <v>1700</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>274</v>
@@ -5319,7 +5301,7 @@
         <v>6</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>130</v>
@@ -5340,13 +5322,13 @@
         <v>6</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AU8" s="6">
         <v>2500</v>
@@ -5366,14 +5348,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AS1">
-      <selection activeCell="BE2" sqref="BE2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="AK1">
       <selection activeCell="AN5" sqref="AN5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AS1">
+      <selection activeCell="BE2" sqref="BE2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5385,7 +5367,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5405,16 +5387,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -5494,12 +5476,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="E6" sqref="E6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="B17" sqref="B17"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="E6" sqref="E6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -5511,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5543,46 +5525,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="Q1" s="14"/>
     </row>
@@ -5594,13 +5576,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D2" s="16">
         <v>45638</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14">
@@ -5652,28 +5634,28 @@
       <c r="H3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="I3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -5798,12 +5780,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="C13" sqref="C13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="394">
   <si>
     <t>Regression Name</t>
   </si>
@@ -1198,9 +1198,6 @@
   </si>
   <si>
     <t>PDC_EarlyDiscount</t>
-  </si>
-  <si>
-    <t>480001 - WI Agency</t>
   </si>
   <si>
     <t>Add_Auto</t>
@@ -2377,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2496,6 +2493,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="F1">
@@ -2515,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2603,8 +2614,8 @@
       <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>382</v>
+      <c r="C2" s="8">
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2624,7 +2635,6 @@
       <c r="J2" s="1">
         <v>2143</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" t="s">
         <v>31</v>
       </c>
@@ -3068,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -3110,7 +3120,7 @@
         <v>103</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>104</v>
@@ -3263,13 +3273,13 @@
         <v>2021</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>125</v>
@@ -4261,7 +4271,7 @@
         <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E1" t="s">
         <v>211</v>
@@ -4286,7 +4296,7 @@
         <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4300,7 +4310,7 @@
         <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4732,7 +4742,7 @@
         <v>269</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L4" s="3">
         <v>2011</v>
@@ -4798,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>6</v>
@@ -4935,7 +4945,7 @@
         <v>6</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>6</v>
@@ -5322,7 +5332,7 @@
         <v>6</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>6</v>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="395">
   <si>
     <t>Regression Name</t>
   </si>
@@ -690,9 +690,6 @@
     <t>DA_VehOssOperator</t>
   </si>
   <si>
-    <t>Vin Gadot</t>
-  </si>
-  <si>
     <t>Russell Crowe</t>
   </si>
   <si>
@@ -1209,31 +1206,37 @@
     <t>FORD</t>
   </si>
   <si>
+    <t>JH/JJ/JL</t>
+  </si>
+  <si>
+    <t>DA_VehPrimaryOpeatorTwo</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Brick Veneer</t>
+  </si>
+  <si>
+    <t>chkFireCentralStation</t>
+  </si>
+  <si>
+    <t>chkGatedCommunity</t>
+  </si>
+  <si>
+    <t>chkSprinklerPartial</t>
+  </si>
+  <si>
+    <t>F-150 PKP4X44D</t>
+  </si>
+  <si>
     <t>BRONCO UTL4X44D</t>
   </si>
   <si>
-    <t>JH/JJ/JL</t>
-  </si>
-  <si>
-    <t>DA_VehPrimaryOpeatorTwo</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Brick Veneer</t>
-  </si>
-  <si>
-    <t>chkFireCentralStation</t>
-  </si>
-  <si>
-    <t>chkGatedCommunity</t>
-  </si>
-  <si>
-    <t>chkSprinklerPartial</t>
+    <t>KH/LJ/CC</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -1729,43 +1732,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="P1" s="14"/>
     </row>
@@ -1777,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="16">
         <v>45638</v>
@@ -1825,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D3" s="2">
         <v>45575</v>
@@ -1868,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" s="2">
         <v>45607</v>
@@ -1915,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D5" s="2">
         <v>46001</v>
@@ -1960,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D6" s="2">
         <v>45573</v>
@@ -2062,16 +2065,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2122,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" t="s">
         <v>344</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2245,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2265,16 +2268,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="E2" s="12">
         <v>8847838782</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2285,16 +2288,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2305,16 +2308,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2325,16 +2328,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>362</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2345,16 +2348,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>365</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2380,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2408,43 +2411,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -2466,7 +2469,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
@@ -2502,6 +2505,18 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>867</v>
+      </c>
+      <c r="L4" s="1">
+        <v>379</v>
+      </c>
+      <c r="M4" s="1">
+        <v>128</v>
+      </c>
+      <c r="N4" s="19">
+        <v>1374</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>6</v>
@@ -2524,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2661,8 +2676,8 @@
       <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>380</v>
+      <c r="C3" s="8">
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>37</v>
@@ -2864,6 +2879,14 @@
       </c>
       <c r="R6" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2914,7 +2937,7 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
         <v>77</v>
@@ -3030,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3078,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>91</v>
@@ -3120,7 +3143,7 @@
         <v>103</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>104</v>
@@ -3270,16 +3293,16 @@
         <v>132</v>
       </c>
       <c r="E3" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>125</v>
@@ -3350,10 +3373,18 @@
       <c r="D4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>125</v>
       </c>
@@ -4247,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4271,7 +4302,7 @@
         <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E1" t="s">
         <v>211</v>
@@ -4292,11 +4323,11 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>212</v>
+      <c r="C3" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4307,10 +4338,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -4321,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
         <v>197</v>
@@ -4427,166 +4458,166 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.35">
@@ -4597,10 +4628,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="L2" s="3">
         <v>2010</v>
@@ -4612,19 +4643,19 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>130</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T2" s="11">
         <v>44843</v>
@@ -4636,7 +4667,7 @@
         <v>51</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>6</v>
@@ -4687,13 +4718,13 @@
         <v>6</v>
       </c>
       <c r="AR2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="AU2" s="6">
         <v>1000</v>
@@ -4716,13 +4747,13 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>6</v>
@@ -4739,10 +4770,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L4" s="3">
         <v>2011</v>
@@ -4754,13 +4785,13 @@
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>131</v>
@@ -4808,13 +4839,13 @@
         <v>6</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AU4" s="6">
         <v>1000</v>
@@ -4846,10 +4877,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L5" s="3">
         <v>2013</v>
@@ -4861,13 +4892,13 @@
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>130</v>
@@ -4885,7 +4916,7 @@
         <v>51</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>6</v>
@@ -4921,7 +4952,7 @@
         <v>2015</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK5" s="3">
         <v>2015</v>
@@ -4945,13 +4976,13 @@
         <v>6</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AU5" s="3">
         <v>500</v>
@@ -4977,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -4989,19 +5020,19 @@
         <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J6" s="3">
         <v>85128</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L6" s="3">
         <v>2012</v>
@@ -5013,19 +5044,19 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>130</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T6" s="18">
         <v>44812</v>
@@ -5037,7 +5068,7 @@
         <v>51</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>6</v>
@@ -5091,7 +5122,7 @@
         <v>135</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AU6" s="6">
         <v>1000</v>
@@ -5106,7 +5137,7 @@
         <v>60000</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
@@ -5117,10 +5148,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L7" s="3">
         <v>2005</v>
@@ -5132,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>131</v>
@@ -5210,7 +5241,7 @@
         <v>135</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AU7" s="3">
         <v>500</v>
@@ -5242,10 +5273,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L8" s="3">
         <v>2016</v>
@@ -5257,19 +5288,19 @@
         <v>1</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>130</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T8" s="18">
         <v>44480</v>
@@ -5278,40 +5309,40 @@
         <v>1700</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="AL8" s="3" t="s">
         <v>130</v>
@@ -5332,13 +5363,13 @@
         <v>6</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AT8" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AU8" s="6">
         <v>2500</v>
@@ -5397,16 +5428,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -5535,46 +5566,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="Q1" s="14"/>
     </row>
@@ -5586,13 +5617,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="16">
         <v>45638</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14">

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8190" windowHeight="5330" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LaunchApp" sheetId="7" r:id="rId1"/>
@@ -29,8 +29,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="14"/>
     <customWorkbookView name="Sandeep Thadoju - Personal View" guid="{C361B274-9BF4-48E2-B593-305609B42D43}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1056" activeSheetId="13"/>
-    <customWorkbookView name="Swetha Seelasaram - Personal View" guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" mergeInterval="0" personalView="1" maximized="1" xWindow="1358" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="14"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="398">
   <si>
     <t>Regression Name</t>
   </si>
@@ -1237,6 +1237,15 @@
   </si>
   <si>
     <t>KH/LJ/CC</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>5,292</t>
+  </si>
+  <si>
+    <t>5,752</t>
   </si>
 </sst>
 </file>
@@ -1685,11 +1694,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -2002,12 +2011,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection sqref="A1:B2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="C7" sqref="C7"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection sqref="A1:B2"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2209,12 +2218,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="B14" sqref="B14"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="D7" sqref="D7"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="B14" sqref="B14"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2362,12 +2371,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="H35" sqref="H35"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection sqref="A1:A2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="H35" sqref="H35"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2379,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2480,17 +2489,17 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="19">
-        <v>1904</v>
-      </c>
-      <c r="L3" s="19">
-        <v>5409</v>
+      <c r="K3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L3" t="s">
+        <v>396</v>
       </c>
       <c r="M3" s="1">
         <v>138</v>
       </c>
-      <c r="N3" s="19">
-        <v>7451</v>
+      <c r="N3" t="s">
+        <v>397</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>6</v>
@@ -2524,12 +2533,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="F1">
       <selection activeCell="I13" sqref="I13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2891,12 +2900,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="G18" sqref="G18"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="G1">
       <selection sqref="A1:B2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="G18" sqref="G18"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -3036,12 +3045,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="E17" sqref="E17"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="C15" sqref="C15"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="E17" sqref="E17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -3736,13 +3745,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
-      <selection activeCell="F18" sqref="F18"/>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="W1">
+      <selection activeCell="AH24" sqref="AH24"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="W1">
-      <selection activeCell="AH24" sqref="AH24"/>
+    <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
+      <selection activeCell="F18" sqref="F18"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
@@ -4261,12 +4270,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="G1">
+      <selection activeCell="Q16" sqref="Q16"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="G1">
-      <selection activeCell="Q16" sqref="Q16"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -4278,7 +4287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4368,12 +4377,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="E26" sqref="E26"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="D6" sqref="D6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -5389,14 +5398,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AS1">
+      <selection activeCell="BE2" sqref="BE2"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}" topLeftCell="AK1">
       <selection activeCell="AN5" sqref="AN5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}" topLeftCell="AS1">
-      <selection activeCell="BE2" sqref="BE2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5517,12 +5526,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="B17" sqref="B17"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="E6" sqref="E6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="B17" sqref="B17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -5821,12 +5830,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
+      <selection activeCell="C13" sqref="C13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
     <customSheetView guid="{C361B274-9BF4-48E2-B593-305609B42D43}">
       <selection activeCell="A2" sqref="A2"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{92DD509C-D5C7-40AA-9A41-98C33811F64E}">
-      <selection activeCell="C13" sqref="C13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>

--- a/Data Files/MSLTestdata.xlsx
+++ b/Data Files/MSLTestdata.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="398">
   <si>
     <t>Regression Name</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Weyne</t>
   </si>
   <si>
-    <t>Sen</t>
-  </si>
-  <si>
     <t>Ol Hayes</t>
   </si>
   <si>
@@ -1239,13 +1236,16 @@
     <t>KH/LJ/CC</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>5,292</t>
   </si>
   <si>
-    <t>5,752</t>
+    <t>319</t>
+  </si>
+  <si>
+    <t>5,749</t>
+  </si>
+  <si>
+    <t>MSL_StopedWorking</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1689,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -1741,43 +1741,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>337</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>338</v>
       </c>
       <c r="P1" s="14"/>
     </row>
@@ -1789,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D2" s="16">
         <v>45638</v>
@@ -1804,40 +1804,40 @@
         <v>1200</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="2">
         <v>45575</v>
@@ -1850,37 +1850,37 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" s="2">
         <v>45607</v>
@@ -1895,39 +1895,39 @@
         <v>1800</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="2">
         <v>46001</v>
@@ -1940,39 +1940,39 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" s="2">
         <v>45573</v>
@@ -1985,28 +1985,28 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2055,12 +2055,12 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
@@ -2068,27 +2068,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>2</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>2</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" t="s">
         <v>343</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>344</v>
-      </c>
-      <c r="D1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2148,35 +2148,35 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>2</v>
@@ -2184,36 +2184,36 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2257,16 +2257,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>348</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2277,96 +2277,96 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="E2" s="12">
         <v>8847838782</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>358</v>
-      </c>
       <c r="F4" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>361</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2386,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2412,7 +2412,7 @@
     <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2420,46 +2420,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2475,10 +2478,13 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
@@ -2493,21 +2499,21 @@
         <v>395</v>
       </c>
       <c r="L3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M3" s="1">
         <v>138</v>
       </c>
       <c r="N3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -2529,6 +2535,9 @@
       </c>
       <c r="O4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2560,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2653,20 +2662,17 @@
       <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" s="1">
         <v>2143</v>
       </c>
       <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
       </c>
       <c r="P2" s="1">
         <v>54817</v>
@@ -2675,50 +2681,50 @@
         <v>1223445465</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J3" s="3">
         <v>3292</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="3">
         <v>65650</v>
@@ -2727,21 +2733,21 @@
         <v>5678968998</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C4" s="3">
         <v>20064</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
@@ -2750,29 +2756,29 @@
         <v>45292</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="J4" s="3">
         <v>8474</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3">
         <v>85364</v>
@@ -2781,15 +2787,15 @@
         <v>7384678937</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="3">
         <v>50021</v>
@@ -2798,33 +2804,33 @@
         <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="18">
         <v>45306</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="J5" s="3">
         <v>1040</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="3">
         <v>80020</v>
@@ -2833,15 +2839,15 @@
         <v>6438832784</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -2856,29 +2862,29 @@
         <v>45292</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="J6" s="3">
         <v>1347</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="P6" s="3">
         <v>58103</v>
@@ -2887,15 +2893,15 @@
         <v>5372727737</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2940,19 +2946,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2963,84 +2969,84 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
         <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3110,100 +3116,100 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
@@ -3214,31 +3220,31 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4">
         <v>2018</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="K2" s="3">
         <v>2000</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" s="6">
         <v>250000</v>
@@ -3248,13 +3254,13 @@
         <v>2000</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="W2" s="9">
         <v>45638</v>
@@ -3276,16 +3282,16 @@
         <v>6</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH2" s="4" t="s">
         <v>6</v>
@@ -3293,37 +3299,37 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1">
         <v>2018</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="3">
         <v>1200</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M3" s="6">
         <v>100000</v>
@@ -3332,16 +3338,16 @@
         <v>2000</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W3" s="9">
         <v>45576</v>
@@ -3371,34 +3377,34 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E4" s="3">
         <v>2021</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="I4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="K4" s="3">
         <v>1400</v>
@@ -3416,16 +3422,16 @@
         <v>6</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH4" s="4" t="s">
         <v>6</v>
@@ -3433,30 +3439,30 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K5" s="3">
         <v>1600</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M5" s="6">
         <v>50000</v>
@@ -3466,10 +3472,10 @@
         <v>2000</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R5" s="3">
         <v>250</v>
@@ -3478,22 +3484,22 @@
         <v>250</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="W5" s="9">
         <v>45576</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z5" s="3">
         <v>5</v>
@@ -3517,26 +3523,26 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" s="3">
         <v>1300</v>
@@ -3559,30 +3565,30 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="3">
         <v>1000</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M7" s="6">
         <v>250000</v>
@@ -3604,7 +3610,7 @@
         <v>6</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W7" s="9">
         <v>45576</v>
@@ -3632,26 +3638,26 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -3674,39 +3680,39 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K9" s="3">
         <v>1800</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M9" s="6">
         <v>250000</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3">
@@ -3716,13 +3722,13 @@
         <v>250</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W9" s="9">
         <v>45568</v>
@@ -3798,46 +3804,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -3848,112 +3854,112 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="H2" s="1">
         <v>312563456</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K2" s="2">
         <v>32854</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M2" s="10">
         <v>44907</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="H3" s="1">
         <v>762563489</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K3" s="2">
         <v>33219</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M3" s="10">
         <v>44927</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" s="1">
         <v>312563419</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K4" s="2">
         <v>32062</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M4" s="10">
         <v>44906</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -3962,43 +3968,43 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="H5" s="1">
         <v>925578423</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" s="2">
         <v>35744</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="1">
         <v>987263556</v>
@@ -4007,33 +4013,33 @@
         <v>384773384</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" s="2">
         <v>31330</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M6" s="10">
         <v>45054</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O6" s="10">
         <v>44927</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -4042,13 +4048,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="G7" s="1">
         <v>278349876</v>
@@ -4057,39 +4063,39 @@
         <v>423432434</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K7" s="2">
         <v>36229</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M7" s="10">
         <v>44927</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O7" s="10">
         <v>44993</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1">
         <v>876566789</v>
@@ -4098,33 +4104,33 @@
         <v>876545678</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K8" s="2">
         <v>29138</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -4133,13 +4139,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G9" s="1">
         <v>654567865</v>
@@ -4148,39 +4154,39 @@
         <v>234566544</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K9" s="2">
         <v>36384</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="1">
         <v>527388474</v>
@@ -4189,48 +4195,48 @@
         <v>332222234</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K10" s="2">
         <v>32062</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M10" s="2">
         <v>44807</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1">
         <v>637839473</v>
@@ -4239,33 +4245,33 @@
         <v>123444545</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K11" s="2">
         <v>35045</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M11" s="2">
         <v>44656</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4308,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -4327,49 +4333,49 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -4467,166 +4473,166 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.35">
@@ -4637,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="L2" s="3">
         <v>2010</v>
@@ -4652,19 +4658,19 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="T2" s="11">
         <v>44843</v>
@@ -4673,67 +4679,67 @@
         <v>800</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="AU2" s="6">
         <v>1000</v>
@@ -4756,13 +4762,13 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BC3" s="3" t="s">
         <v>6</v>
@@ -4773,16 +4779,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L4" s="3">
         <v>2011</v>
@@ -4794,67 +4800,67 @@
         <v>1</v>
       </c>
       <c r="O4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT4" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="AU4" s="6">
         <v>1000</v>
@@ -4880,16 +4886,16 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L5" s="3">
         <v>2013</v>
@@ -4901,19 +4907,19 @@
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T5" s="18">
         <v>44479</v>
@@ -4922,10 +4928,10 @@
         <v>900</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>6</v>
@@ -4934,25 +4940,25 @@
         <v>6</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>6</v>
@@ -4961,16 +4967,16 @@
         <v>2015</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK5" s="3">
         <v>2015</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AN5" s="3" t="s">
         <v>6</v>
@@ -4985,13 +4991,13 @@
         <v>6</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AU5" s="3">
         <v>500</v>
@@ -5011,13 +5017,13 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -5026,22 +5032,22 @@
         <v>236</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="J6" s="3">
         <v>85128</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L6" s="3">
         <v>2012</v>
@@ -5053,19 +5059,19 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="T6" s="18">
         <v>44812</v>
@@ -5074,64 +5080,64 @@
         <v>800</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT6" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="AU6" s="6">
         <v>1000</v>
@@ -5140,27 +5146,27 @@
         <v>2500</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AX6" s="6">
         <v>60000</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L7" s="3">
         <v>2005</v>
@@ -5172,85 +5178,85 @@
         <v>1</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT7" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="AU7" s="3">
         <v>500</v>
@@ -5259,7 +5265,7 @@
         <v>1000</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AX7" s="3">
         <v>200000</v>
@@ -5276,16 +5282,16 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L8" s="3">
         <v>2016</v>
@@ -5297,19 +5303,19 @@
         <v>1</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="R8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T8" s="18">
         <v>44480</v>
@@ -5318,67 +5324,67 @@
         <v>1700</v>
       </c>
       <c r="V8" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AL8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT8" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="AL8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="AU8" s="6">
         <v>2500</v>
@@ -5437,16 +5443,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -5473,7 +5479,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -5487,18 +5493,18 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
@@ -5512,7 +5518,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>2</v>
@@ -5575,46 +5581,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>322</v>
       </c>
       <c r="Q1" s="14"/>
     </row>
@@ -5626,50 +5632,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D2" s="16">
         <v>45638</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14">
         <v>3</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>2</v>
@@ -5682,35 +5688,35 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -5721,36 +5727,36 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -5761,36 +5767,36 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -5801,31 +5807,31 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
